--- a/excel/format-karyawan.xlsx
+++ b/excel/format-karyawan.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\waranti_daihatsu\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\waranti\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2E0AB0-AF6C-47E9-B3A8-04F6812B7B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="-11640" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="-11640" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>NPK</t>
   </si>
@@ -55,12 +55,27 @@
   </si>
   <si>
     <t>STATUS KARYAWAN</t>
+  </si>
+  <si>
+    <t>jawa orang</t>
+  </si>
+  <si>
+    <t>perempuan</t>
+  </si>
+  <si>
+    <t>solokan</t>
+  </si>
+  <si>
+    <t>dani@gmail.com</t>
+  </si>
+  <si>
+    <t>Tetap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,11 +398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,11 +451,41 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
+      <c r="A2">
+        <v>1222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>36872</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>9128378</v>
+      </c>
+      <c r="G2">
+        <v>1212321</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44177</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>